--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9755AC-804E-475E-9370-556984D088FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D370202-FAE4-4E31-B2DF-F99212585EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,18 +609,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5" si="1">F5-G5</f>
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K23" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2032,9 @@
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>64</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2065,7 +2067,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D370202-FAE4-4E31-B2DF-F99212585EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A0EA5-EAB7-4E6E-87B9-CC66C198AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,22 +605,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5" si="1">F5-G5</f>
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,9 @@
       <c r="C6" s="6">
         <v>72</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>72</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1219,7 +1221,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1793,7 +1795,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:K24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2037,9 @@
       <c r="C6" s="6">
         <v>64</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>15</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2067,7 +2071,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A0EA5-EAB7-4E6E-87B9-CC66C198AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BE624-B6DC-4B69-8DB4-524B5457042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,18 +609,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5" si="1">F5-G5</f>
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2041,9 @@
         <v>15</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>12</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2071,7 +2073,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BE624-B6DC-4B69-8DB4-524B5457042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AFD24B-C625-4F4D-951C-A9FC13BE28B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,18 +579,18 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <f>F4-G4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,18 +609,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5" si="1">F5-G5</f>
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1995,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -2024,7 +2026,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f>SUM(C5:AG5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2044,7 +2046,9 @@
       <c r="F6" s="7">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
@@ -2073,7 +2077,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499764B6-D339-46FD-AB7D-138AD212B435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7832DDC7-8EA9-478E-91DE-5A21C0F38EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,18 +600,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2140,9 @@
       <c r="J6" s="6">
         <v>34</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>11</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -2165,7 +2167,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7832DDC7-8EA9-478E-91DE-5A21C0F38EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A5DB49-DA58-491F-B3E3-55CC147B7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,22 +566,22 @@
       </c>
       <c r="D4" s="3">
         <f>Nhập!AH5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <f>F4-G4</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,22 +596,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,9 @@
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>8</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="6"/>
@@ -1252,7 +1254,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f>SUM(C5:AG5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1277,8 +1279,12 @@
         <v>66</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7">
+        <v>88</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6"/>
@@ -1301,7 +1307,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>210</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1881,7 +1887,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2094,9 @@
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2112,7 +2120,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f>SUM(C5:AG5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2143,8 +2151,12 @@
       <c r="K6" s="7">
         <v>11</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7">
+        <v>38</v>
+      </c>
+      <c r="M6" s="7">
+        <v>22</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6"/>
@@ -2167,7 +2179,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A5DB49-DA58-491F-B3E3-55CC147B7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882EEBB-946D-4893-9D4C-6AB48B9CF31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,18 +600,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2157,9 @@
       <c r="M6" s="7">
         <v>22</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>10</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2179,7 +2181,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882EEBB-946D-4893-9D4C-6AB48B9CF31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F2D1A3-B109-481C-9E31-86E2C2492835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,22 +596,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,9 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6">
+        <v>90</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1307,7 +1309,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>322</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1887,7 +1889,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,9 +2162,13 @@
       <c r="N6" s="7">
         <v>10</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7">
+        <v>6</v>
+      </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6">
+        <v>38</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -2181,7 +2187,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F2D1A3-B109-481C-9E31-86E2C2492835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6055B-E711-404B-827D-A8C847D45379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -191,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +223,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,7 +522,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F25" activeCellId="2" sqref="F22 D27 F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,14 +538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -547,7 +566,7 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -576,7 +595,7 @@
         <f>C4+D4-E4</f>
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -596,22 +615,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>152</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
+        <v>200</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,7 +655,7 @@
         <f t="shared" ref="F6" si="1">C6+D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -666,7 +685,7 @@
         <f>C7+D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -696,7 +715,7 @@
         <f t="shared" ref="F8" si="2">C8+D8-E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
       <c r="H8" s="3">
@@ -726,7 +745,7 @@
         <f t="shared" ref="F9" si="3">C9+D9-E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="3">
@@ -756,7 +775,7 @@
         <f>C10+D10-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10">
         <v>0</v>
       </c>
       <c r="H10" s="3">
@@ -786,7 +805,7 @@
         <f t="shared" ref="F11" si="4">C11+D11-E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="3">
@@ -816,7 +835,7 @@
         <f t="shared" ref="F12" si="5">C12+D12-E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="3">
@@ -845,7 +864,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -873,7 +892,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="3">
@@ -900,7 +919,7 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="10">
         <v>0</v>
       </c>
       <c r="H15" s="3">
@@ -927,7 +946,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="3">
@@ -954,7 +973,7 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="10">
         <v>0</v>
       </c>
       <c r="H17" s="3">
@@ -983,7 +1002,7 @@
         <f>C18+D18-E18</f>
         <v>6</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="3">
@@ -1022,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F25" activeCellId="2" sqref="F22 D27 F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,88 +1054,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -1210,7 +1229,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1292,7 +1311,9 @@
         <v>90</v>
       </c>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7">
+        <v>66</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1309,7 +1330,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>412</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1889,7 +1910,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,88 +1922,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -2076,7 +2097,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2170,8 +2191,12 @@
         <v>38</v>
       </c>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>15</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -2187,7 +2212,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -2778,52 +2803,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -2917,7 +2942,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6055B-E711-404B-827D-A8C847D45379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Xuất" sheetId="3" r:id="rId3"/>
     <sheet name="Hủy tb" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" activeCellId="2" sqref="F22 D27 F25"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,18 +618,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G5" s="10">
         <v>8</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F25" activeCellId="2" sqref="F22 D27 F25"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,11 +1905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2196,9 @@
       <c r="T6" s="7">
         <v>15</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>10</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="6"/>
@@ -2212,7 +2213,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -2787,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH20"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E876482-F57F-4341-9761-57CF91B347BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Xuất" sheetId="3" r:id="rId3"/>
     <sheet name="Hủy tb" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,18 +619,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F5" s="3">
         <f>C5+D5-E5</f>
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G5" s="10">
         <v>8</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H18" si="0">F5-G5</f>
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
@@ -1905,11 +1906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2202,9 @@
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="6"/>
+      <c r="X6" s="6">
+        <v>11</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -2213,7 +2216,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -2788,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:AH20"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E47C9-AC2B-4C7E-93E7-43A9F3FD877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2362AA-5D14-4954-94C0-9FD3348993C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2262,9 @@
       <c r="Z5" s="4">
         <v>12</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="5"/>
@@ -2271,7 +2273,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2362AA-5D14-4954-94C0-9FD3348993C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1A879-CFD9-428D-9135-506DCE97A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2265,9 @@
       <c r="AA5" s="4">
         <v>1</v>
       </c>
-      <c r="AB5" s="4"/>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -2273,7 +2275,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1A879-CFD9-428D-9135-506DCE97A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD47802-5625-4583-8B39-BF94C061729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,14 +2268,16 @@
       <c r="AB5" s="4">
         <v>1</v>
       </c>
-      <c r="AC5" s="4"/>
+      <c r="AC5" s="4">
+        <v>4</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD47802-5625-4583-8B39-BF94C061729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA09581-4397-4161-991A-9A5169219770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,18 +640,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+'Hủy tb'!AH3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,12 +2189,14 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="AE4" s="5">
+        <v>3</v>
+      </c>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4">
         <f>SUM(C4:AG4)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA09581-4397-4161-991A-9A5169219770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27EA2B-4748-40DA-8FC0-B695C1159AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,11 +2275,13 @@
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="4">
+        <v>7</v>
+      </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 12_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27EA2B-4748-40DA-8FC0-B695C1159AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D95875-76E5-43C0-BDEE-C0AB96141ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,10 +2278,12 @@
       <c r="AF5" s="4">
         <v>7</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="4">
+        <v>7</v>
+      </c>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
